--- a/Data/EC/NIT-9001304607.xlsx
+++ b/Data/EC/NIT-9001304607.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D0523E-32B2-4B9D-851B-D6DA2AAFB113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{861F9BAC-6599-4C3B-A28D-CE7635690F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9047BDF6-ABEE-45ED-BF76-228C788A15E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{227FD240-5F23-4090-90D0-54705FBB7728}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,70 +71,79 @@
     <t>DIANA PONTON ARAGON</t>
   </si>
   <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1065002162</t>
+  </si>
+  <si>
+    <t>ANA MARIA MUÑOZ ARIAS</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
     <t>1811</t>
   </si>
   <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1065002162</t>
-  </si>
-  <si>
-    <t>ANA MARIA MUÑOZ ARIAS</t>
+    <t>1005571663</t>
+  </si>
+  <si>
+    <t>KAROLAY VANESA ROMERO ACOSTA</t>
+  </si>
+  <si>
+    <t>2304</t>
   </si>
   <si>
     <t>1007890715</t>
@@ -143,28 +152,22 @@
     <t>PAOLA ANDREA GOMEZ CRUZ</t>
   </si>
   <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1005571663</t>
-  </si>
-  <si>
-    <t>KAROLAY VANESA ROMERO ACOSTA</t>
-  </si>
-  <si>
-    <t>2304</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -263,7 +266,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -478,23 +481,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,10 +525,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E0DF51-EC89-B198-A5F5-682FA34F6EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9A9045-ED2F-944A-07C3-B55AFDFE311E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E598D926-2E47-4658-978B-E972F98BD45B}">
-  <dimension ref="B2:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AB84D-3486-4231-8744-D4F3F02B18C0}">
+  <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -954,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -999,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1031,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1065904</v>
+        <v>1125237</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1084,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1107,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1130,10 +1133,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1153,10 +1156,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1179,7 +1182,7 @@
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1202,7 +1205,7 @@
         <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1225,7 +1228,7 @@
         <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1236,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1265,13 +1268,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1282,10 +1285,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
@@ -1294,7 +1297,7 @@
         <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1317,7 +1320,7 @@
         <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1328,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1357,13 +1360,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1374,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1403,13 +1406,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1420,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1449,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1472,13 +1475,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
         <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1495,13 +1498,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1518,13 +1521,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1541,13 +1544,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>1483320</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1558,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>877803</v>
+        <v>1483320</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1581,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18">
         <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>877803</v>
+        <v>1483320</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1604,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>1483320</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1627,19 +1630,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>1483320</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1650,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>877803</v>
+        <v>1483320</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1682,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>59333</v>
+        <v>26294</v>
       </c>
       <c r="G41" s="18">
-        <v>1483320</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1696,13 +1699,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>59333</v>
@@ -1719,13 +1722,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>59333</v>
@@ -1742,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>59333</v>
@@ -1765,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>59333</v>
@@ -1784,42 +1787,54 @@
       <c r="J45" s="20"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="22" t="s">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="24">
-        <v>26294</v>
-      </c>
-      <c r="G46" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="H51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="F46" s="18">
+        <v>59333</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1483320</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="24">
+        <v>59333</v>
+      </c>
+      <c r="G47" s="24">
+        <v>1483320</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C52" s="32"/>
       <c r="H52" s="1" t="s">
@@ -1828,12 +1843,23 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="H53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H51:J51"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
